--- a/biology/Botanique/Clemens_Alexander_Wimmer/Clemens_Alexander_Wimmer.xlsx
+++ b/biology/Botanique/Clemens_Alexander_Wimmer/Clemens_Alexander_Wimmer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clemens Alexander Wimmer (né en 1959 à Berlin) est un historien du jardin, planificateur de jardin, auteur et peintre allemand. Son abréviation d'auteur botanique est C.A.Wimm[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clemens Alexander Wimmer (né en 1959 à Berlin) est un historien du jardin, planificateur de jardin, auteur et peintre allemand. Son abréviation d'auteur botanique est C.A.Wimm.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Wimmer est le fils d'un couple d'artistes. Il étudie de 1977 à 1982 à l'Université technique de Berlin, obtient son doctorat en 1984 sous la direction de Dieter Hennebo (de) à l'Université de Hanovre et obtient son habilitation en 2001 à l'Université technique de Berlin dans le domaine de la préservation des monuments de jardin.
 Depuis 1984, il travaille en indépendant. Depuis 1990, il travaille bénévolement à la bibliothèque de l'association allemande d'horticulture (Deutscher Gartenbau e.V.).
@@ -543,7 +557,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Wimmer combine l'historiographie de jardin traditionnelle, orientée vers l'histoire de l'art, avec l'histoire personnelle et surtout avec l'histoire des plantes en tant qu'éléments principaux du jardin. Il fait de l'histoire de l'introduction, de la distribution et de l'utilisation des plantes l'un des axes de son travail. Ces dernières années, il s'est de plus en plus consacré à l'histoire de l'horticulture pratique, à l'histoire de l'entreprise et à l'élevage de vivaces.
 Wimmer rédige de nombreux rapports et plans pour des jardins historiques tels que les jardins du château de Charlottenbourg, le parc du château de Bellevue, le parc du château de Schwetzingen, le parc du château de Rheinsberg, le parc de la principauté de Greiz (de), le parc du château de Schönhausen, le parc du château de Königs Wusterhausen, le Lustgarten de Berlin, le parc du château d'Alt Madlitz, le parc du château de Meseberg et le domaine viticole Heyl zu Herrnsheim (de) à Nierstein.
@@ -578,7 +594,9 @@
           <t>Travaux de planification exécutés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jardins du château de Charlottenbourg, Luiseninsel (reconstruction), 1989
 Cour et jardin du docteur Hübner, Potsdam, 1993
@@ -618,11 +636,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rédaction
-Éditeur du magazine Zandera : Messages de la Deutsche Gartenbabiblithek e. contre Berlin.
-Co-rédacteur en chef du magazine Die Gartenkunst depuis 2015
-Monographies
-Pflastermosaike in Berlin (West). Berlin., TU, Dipl. Arb., 1982
+          <t>Rédaction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Éditeur du magazine Zandera : Messages de la Deutsche Gartenbabiblithek e. contre Berlin.
+Co-rédacteur en chef du magazine Die Gartenkunst depuis 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clemens_Alexander_Wimmer</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clemens_Alexander_Wimmer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications (sélection)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Monographies</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pflastermosaike in Berlin (West). Berlin., TU, Dipl. Arb., 1982
 Die Gärten des Charlottenburger Schlosses. Hrsg.v . d. Senatsverwaltung für Stadtentwicklung und Umweltschutz. Berlin 1985. - 103 S.: Ill.
 Sichtachsen in Berlin und Umgebung: Zeugnisse fürstlicher Weltanschauung, Kunst und Jägerlust. Berlin 1985. – 39 S.: Ill. (Berliner Hefte, 2)
 Details Altberliner Mietshäuser. Berlin: Bauverlag, 1986. 71 S.: Ill. (Berliner Hefte, 3)
@@ -648,7 +705,7 @@
 René Rapin: Die Gärten, ein Gedicht in vier Büchern. Weimar: vdg, 2013 (Herausgeber)
 Lustwald, Beet und Rosenhügel: Geschichte der Pflanzenverwendung in der Gartenkunst. Weimar: vdg, 2014. - 231 S.: Ill.  (ISBN 978-3-89739-749-1)
 Geschichte der Gartenkultur. Berlin: L&amp;H, 2015. - 288 S.: Ill. (Hauptautor, Redakteur)  (ISBN 978-3-939629-35-1)
-Der Gartenkünstler Peter Joseph Lenné: Eine Karriere am preußischen Hof. Darmstadt: Schneider, 2016 [2015]. 226 S., 16 Tf.  (ISBN 978-3-650-40129-8)</t>
+Der Gartenkünstler Peter Joseph Lenné: Eine Karriere am preußischen Hof. Darmstadt: Schneider, 2016 . 226 S., 16 Tf.  (ISBN 978-3-650-40129-8)</t>
         </is>
       </c>
     </row>
